--- a/doc/后端api.xlsx
+++ b/doc/后端api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12800" windowHeight="12080"/>
+    <workbookView windowWidth="25600" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>OLD API</t>
   </si>
@@ -70,6 +70,12 @@
     <t>获取景点情感分析总结结果(按月总计)</t>
   </si>
   <si>
+    <t>liter_sentiments_result</t>
+  </si>
+  <si>
+    <t>获取文学情感分析总结结果(按月总计)</t>
+  </si>
+  <si>
     <t>generate_report</t>
   </si>
   <si>
@@ -79,6 +85,12 @@
     <t>获取景点大模型分析报告</t>
   </si>
   <si>
+    <t>liter_generate_report</t>
+  </si>
+  <si>
+    <t>获取文学大模型分析报告</t>
+  </si>
+  <si>
     <t>sentiments_count</t>
   </si>
   <si>
@@ -88,6 +100,12 @@
     <t>获取景点情感分析比例结果</t>
   </si>
   <si>
+    <t>liter_sentiments_count</t>
+  </si>
+  <si>
+    <t>获取文学情感分析比例结果</t>
+  </si>
+  <si>
     <t>get_word_frequency</t>
   </si>
   <si>
@@ -103,6 +121,9 @@
     <t>liter_get_word_frequency</t>
   </si>
   <si>
+    <t>获取文学词频统计结果</t>
+  </si>
+  <si>
     <t>lda_analyze</t>
   </si>
   <si>
@@ -112,6 +133,12 @@
     <t>获取景点主题聚类统计结果</t>
   </si>
   <si>
+    <t>liter_lda_analyze</t>
+  </si>
+  <si>
+    <t>获取文学主题聚类统计结果</t>
+  </si>
+  <si>
     <t>get_comment_list</t>
   </si>
   <si>
@@ -121,6 +148,12 @@
     <t>获取景点评论详细信息</t>
   </si>
   <si>
+    <t>liter_get_comment_list</t>
+  </si>
+  <si>
+    <t>获取文学评论详细信息</t>
+  </si>
+  <si>
     <t>get_cloud</t>
   </si>
   <si>
@@ -128,6 +161,12 @@
   </si>
   <si>
     <t>获取景点词云图</t>
+  </si>
+  <si>
+    <t>liter_get_cloud</t>
+  </si>
+  <si>
+    <t>获取文学词云图</t>
   </si>
 </sst>
 </file>
@@ -1058,10 +1097,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1125,99 +1164,168 @@
         <v>12</v>
       </c>
     </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
       </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>32</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
